--- a/test-data/spreadsheet/array.xlsx
+++ b/test-data/spreadsheet/array.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,8 +1165,12 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <f t="array" ref="F18">SMALL(D2:D17*E2:E17,1)</f>
-        <v>1600</v>
+        <f t="array" ref="F18">PRODUCT(D2:D17/E2:E17)</f>
+        <v>2.2277128597140037E-42</v>
+      </c>
+      <c r="H18">
+        <f>1/2</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/spreadsheet/array.xlsx
+++ b/test-data/spreadsheet/array.xlsx
@@ -1165,8 +1165,8 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <f t="array" ref="F18">PRODUCT(D2:D17/E2:E17)</f>
-        <v>2.2277128597140037E-42</v>
+        <f t="array" ref="F18">SUM(D2:D17+F2:F17)</f>
+        <v>189691</v>
       </c>
       <c r="H18">
         <f>1/2</f>

--- a/test-data/spreadsheet/array.xlsx
+++ b/test-data/spreadsheet/array.xlsx
@@ -1165,8 +1165,8 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <f t="array" ref="F18">SUM(D2:D17+F2:F17)</f>
-        <v>189691</v>
+        <f t="array" ref="F18">SUM(D2:D17+F2:F17+A2:A17)</f>
+        <v>189827</v>
       </c>
       <c r="H18">
         <f>1/2</f>
